--- a/biology/Botanique/Coteaux-de-glanes/Coteaux-de-glanes.xlsx
+++ b/biology/Botanique/Coteaux-de-glanes/Coteaux-de-glanes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Coteaux-de-glanes, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays) de zone du sud-ouest, produit dans le département du Lot.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'histoire de ce vignoble est liée à l'abbaye Saint-Pierre de Beaulieu-sur-Dordogne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire de ce vignoble est liée à l'abbaye Saint-Pierre de Beaulieu-sur-Dordogne.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vignoble est situé dans le département du Lot sur les communes de Bretenoux, Belmont-Bretenoux, Cornac, Glanes, Prudhomat, Saint-Laurent-les-Tours et Saint-Michel-Loubéjou[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble est situé dans le département du Lot sur les communes de Bretenoux, Belmont-Bretenoux, Cornac, Glanes, Prudhomat, Saint-Laurent-les-Tours et Saint-Michel-Loubéjou.
 </t>
         </is>
       </c>
@@ -576,19 +592,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Encépagement
-Les cépages rouges et rosés sont:
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les cépages rouges et rosés sont:
 Cépages: Merlot N, cabernet sauvignon N, Gamay N, Ségalin N.
 Les cépages blancs sont:
-Cépages: chenin B, chardonnay B[5].
-Types de vin
-Il existe six labellisations différentes :
-Coteaux de Glanes blanc[6]
-Coteaux de Glanes rosé[7]
-Coteaux de Glanes rouge[8]
-Coteaux de Glanes primeur ou nouveau blanc[9]
-Coteaux de Glanes primeur ou nouveau rosé[10]
-Coteaux de Glanes primeur ou nouveau rouge[11]</t>
+Cépages: chenin B, chardonnay B.</t>
         </is>
       </c>
     </row>
@@ -613,10 +626,54 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il existe six labellisations différentes :
+Coteaux de Glanes blanc
+Coteaux de Glanes rosé
+Coteaux de Glanes rouge
+Coteaux de Glanes primeur ou nouveau blanc
+Coteaux de Glanes primeur ou nouveau rosé
+Coteaux de Glanes primeur ou nouveau rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coteaux-de-glanes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-glanes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Types de vin et gastronomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
